--- a/TestCases/Quiz_Application_Test_case_basic_setup_hardik.xlsx
+++ b/TestCases/Quiz_Application_Test_case_basic_setup_hardik.xlsx
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.Enter the website url.  </t>
-  </si>
-  <si>
-    <t>Basic Setup</t>
   </si>
   <si>
     <t>Reviewed By:</t>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t xml:space="preserve">Name      :Dipa        (max 150 characters)                   Email       :dipa@promc.com  (max 255 characters)                                                               Password:pwd@9922  (8-14 characters which includes atleast  1 uppercase letter,1 lowercase letter,1 numeric and 1 special character)                                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Setup </t>
   </si>
 </sst>
 </file>
@@ -602,6 +602,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -631,39 +664,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,17 +1008,17 @@
       <c r="B2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="56" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="46" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="7"/>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="B3" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1047,16 +1047,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="1"/>
@@ -1067,14 +1067,14 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1083,14 +1083,14 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+        <v>21</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1099,12 +1099,12 @@
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1182,20 +1182,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -1208,20 +1208,20 @@
         <v>2</v>
       </c>
       <c r="B12" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="D12" s="63"/>
+      <c r="E12" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="45" t="s">
-        <v>31</v>
-      </c>
       <c r="F12" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="37" t="s">
         <v>34</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>35</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -1234,20 +1234,20 @@
         <v>3</v>
       </c>
       <c r="B13" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -1260,20 +1260,20 @@
         <v>4</v>
       </c>
       <c r="B14" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="52"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -1286,18 +1286,18 @@
         <v>5</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="52"/>
+        <v>41</v>
+      </c>
+      <c r="D15" s="63"/>
       <c r="E15" s="44"/>
       <c r="F15" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
@@ -1307,17 +1307,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C5:D7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
